--- a/05-mayo/DETALLE.xlsx
+++ b/05-mayo/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\04-abril\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745890E9-9877-4049-B64F-0CA3961CF434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2543C60-9ACB-4A87-B46E-B809475382AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="2775" windowWidth="26430" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="1815" windowWidth="19305" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>

--- a/05-mayo/DETALLE.xlsx
+++ b/05-mayo/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2543C60-9ACB-4A87-B46E-B809475382AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04E50A9-87E7-403C-8551-3BC286D55211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1815" windowWidth="19305" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29850" yWindow="555" windowWidth="17595" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SUELDOS: ABRIL 2025</t>
+    <t>SUELDOS: MAYO 2025</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +239,6 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBDA0C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -564,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,27 +667,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,11 +676,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,7 +721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1028,52 +1019,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
@@ -1125,13 +1116,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
@@ -1148,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
@@ -1171,13 +1162,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
@@ -1194,15 +1185,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -1219,13 +1210,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
@@ -1242,13 +1233,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
@@ -1265,13 +1256,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1303,42 +1294,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1348,33 +1339,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1384,53 +1375,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1440,17 +1431,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1460,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/05-mayo/DETALLE.xlsx
+++ b/05-mayo/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2543C60-9ACB-4A87-B46E-B809475382AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0BA76-23D5-4F36-9095-301362A46F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1815" windowWidth="19305" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26310" yWindow="3660" windowWidth="19305" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SUELDOS: ABRIL 2025</t>
+    <t>SUELDOS: MAYO 2025</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCBDA0C"/>
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,27 +673,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,6 +680,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,9 +722,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFCBDA0C"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1029,7 +1038,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1046,32 +1055,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1125,9 +1134,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1148,9 +1157,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1171,9 +1180,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
@@ -1194,9 +1203,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1219,9 +1228,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1242,9 +1251,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1265,9 +1274,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
@@ -1318,10 +1327,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1354,10 +1363,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1390,8 +1399,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1410,10 +1419,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/05-mayo/DETALLE.xlsx
+++ b/05-mayo/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\05-mayo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04E50A9-87E7-403C-8551-3BC286D55211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DF749-3491-4EB0-A315-0D2624FCD349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="555" windowWidth="17595" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +239,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +673,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,37 +712,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFCBDA0C"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -721,7 +739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1020,51 +1038,51 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
@@ -1116,13 +1134,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
@@ -1139,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
@@ -1162,13 +1180,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
@@ -1185,15 +1203,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -1210,13 +1228,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
@@ -1233,13 +1251,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
@@ -1256,13 +1274,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1294,42 +1312,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1339,33 +1357,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1375,53 +1393,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1431,17 +1449,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1451,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/05-mayo/DETALLE.xlsx
+++ b/05-mayo/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DF749-3491-4EB0-A315-0D2624FCD349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9AE1C5-D169-4B2F-BC27-87BB8D3841D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27405" yWindow="960" windowWidth="19140" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,6 +710,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1041,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1158,7 +1161,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="34"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
@@ -1181,7 +1184,7 @@
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="48"/>
-      <c r="H6" s="43"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="43"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
@@ -1204,7 +1207,7 @@
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="43"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="43"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
@@ -1229,7 +1232,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="44"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="44"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
@@ -1252,7 +1255,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="45"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
@@ -1275,7 +1278,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="44"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="44"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>

--- a/05-mayo/DETALLE.xlsx
+++ b/05-mayo/DETALLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\05-mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04E50A9-87E7-403C-8551-3BC286D55211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049CAAF-A76F-445B-ACEF-E23007B0D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29850" yWindow="555" windowWidth="17595" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +239,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +673,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,22 +697,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,9 +716,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFCBDA0C"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1020,7 +1032,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1037,32 +1049,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1116,9 +1128,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1139,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -1162,9 +1174,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
@@ -1185,9 +1197,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1210,9 +1222,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1233,9 +1245,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1256,9 +1268,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
@@ -1309,10 +1321,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1345,10 +1357,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1381,8 +1393,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1401,10 +1413,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
